--- a/data/output/performance_Close_ADA.xlsx
+++ b/data/output/performance_Close_ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365329353.032</v>
+        <v>365329402.651</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19113.591</v>
+        <v>19113.592</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18908.587</v>
+        <v>18908.589</v>
       </c>
     </row>
     <row r="5">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5344500.933</v>
+        <v>5344501.275</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14641239.531</v>
+        <v>14641240.525</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>52544.064</v>
+        <v>52544.068</v>
       </c>
     </row>
     <row r="10">
